--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="40" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="160" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>1 vs 0</t>
   </si>
@@ -111,13 +111,31 @@
   </si>
   <si>
     <t>79 out of 100 repetition</t>
+  </si>
+  <si>
+    <t>0&gt;1</t>
+  </si>
+  <si>
+    <t>1&gt;0&gt;2</t>
+  </si>
+  <si>
+    <t>0&gt;3&gt;1&gt;2</t>
+  </si>
+  <si>
+    <t>1&gt;0&gt;4&gt;2&gt;3</t>
+  </si>
+  <si>
+    <t>0&gt;1&gt;2</t>
+  </si>
+  <si>
+    <t>1&gt;0&gt;4&gt;3&gt;2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +210,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,7 +402,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -403,8 +426,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,7 +443,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,16 +490,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,9 +503,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -503,6 +593,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -514,6 +605,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -843,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M38"/>
+  <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -855,589 +947,694 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="19"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="18">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>-0.1618087</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>7.2028369999999994E-2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>-0.17662720000000001</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>-0.23758509999999999</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>-0.37123040000000002</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>-0.1125782</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0.58856109999999995</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>-0.14091770000000001</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f>-0.5286091</f>
         <v>-0.52860910000000005</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>-9.1246220000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" ht="18">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="9">
         <v>-0.1477463</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C6" s="24">
         <v>-3.267547E-3</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D6" s="25">
         <v>-0.21823020000000001</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E6" s="24">
         <v>-0.1514133</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F6" s="12">
         <v>-0.3790287</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G6" s="11">
         <v>-0.11397210000000001</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H6" s="24">
         <v>0.71385609999999999</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I6" s="28">
         <v>-3.5405430000000002E-2</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J6" s="28">
         <v>-0.36857820000000002</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K6" s="25">
         <v>-3.9921369999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18">
-      <c r="A6" s="18" t="s">
+    <row r="7" spans="1:12" ht="18">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" ht="18">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B8" s="13">
         <v>-0.20689299999999999</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C8" s="14">
         <v>9.4824640000000002E-2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D8" s="26">
         <v>-0.44182779999999999</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E8" s="27">
         <v>-0.14833080000000001</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F8" s="15">
         <v>-0.4171551</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G8" s="26">
         <v>-6.4506309999999997E-2</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H8" s="27">
         <v>0.71169369999999998</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I8" s="15">
         <v>-0.13581989999999999</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J8" s="29">
         <v>-0.12475700000000001</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K8" s="26">
         <v>-4.1133690000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20">
-      <c r="A12" s="41" t="s">
+    <row r="9" spans="1:12" ht="18">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="14" spans="1:12" ht="20">
+      <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G15" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="B14">
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <v>2400</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="1">
         <v>2400</v>
       </c>
-      <c r="E14">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>4800</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F16" s="35">
         <v>48</v>
       </c>
-      <c r="G14">
+      <c r="G16" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="B15">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
         <v>1200</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="1">
         <v>1200</v>
       </c>
-      <c r="D15">
+      <c r="D17" s="1">
         <v>2400</v>
       </c>
-      <c r="E15">
-        <f>SUM(B15:D15)</f>
+      <c r="E17" s="1">
+        <f>SUM(B17:D17)</f>
         <v>4800</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F17" s="36">
         <v>42</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G17" s="36">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="B16">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
         <v>2400</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="1">
         <v>2400</v>
       </c>
-      <c r="D16">
+      <c r="D18" s="1">
         <v>2400</v>
       </c>
-      <c r="E16">
-        <f>SUM(B16:D16)</f>
+      <c r="E18" s="1">
+        <f>SUM(B18:D18)</f>
         <v>7200</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F18" s="35">
         <v>50</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G18" s="36">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="B17" s="33">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="37">
         <v>600</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C19" s="38">
         <v>600</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D19" s="38">
         <v>2400</v>
       </c>
-      <c r="E17" s="34">
-        <f t="shared" ref="E17:E27" si="0">SUM(B17:D17)</f>
+      <c r="E19" s="38">
+        <f t="shared" ref="E19:E29" si="0">SUM(B19:D19)</f>
         <v>3600</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F19" s="39">
         <v>52</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G19" s="40">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="B18" s="40">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="41">
         <v>1200</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C20" s="41">
         <v>2400</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="46">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43">
         <v>48</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G20" s="44">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="B19">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
         <v>240</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="1">
         <v>240</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="1">
         <v>2400</v>
       </c>
-      <c r="E19">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F21" s="35">
         <v>49</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G21" s="36">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="B21">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
         <v>4800</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="1">
         <v>4800</v>
       </c>
-      <c r="E21">
-        <f>SUM(B21:C21)</f>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f>SUM(B23:C23)</f>
         <v>9600</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F23" s="45">
         <v>60</v>
       </c>
-      <c r="G21">
+      <c r="G23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="33">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="37">
         <v>2400</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C24" s="38">
         <v>2400</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D24" s="38">
         <v>4800</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E24" s="38">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F24" s="39">
         <v>65</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G24" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="B23">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
         <v>600</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="1">
         <v>600</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="1">
         <v>4800</v>
       </c>
-      <c r="E23">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F25" s="45">
         <v>61</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G25" s="36">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="33">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="37">
         <v>480</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C26" s="38">
         <v>480</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D26" s="38">
         <v>4800</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E26" s="38">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F26" s="39">
         <v>64</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G26" s="40">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="40">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="41">
         <v>960</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C27" s="41">
         <v>4800</v>
       </c>
-      <c r="E25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>5760</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F27" s="45">
         <v>60</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G27" s="44">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" s="33">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="37">
         <v>480</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C29" s="38">
         <v>480</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D29" s="38">
         <v>6000</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E29" s="38">
         <f t="shared" si="0"/>
         <v>6960</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F29" s="46">
         <v>80</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G29" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="B28">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
         <v>960</v>
       </c>
-      <c r="C28">
+      <c r="C30" s="1">
         <v>6000</v>
       </c>
-      <c r="E28">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
         <v>6960</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F30" s="44">
         <v>72</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G30" s="44">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="B29">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
         <v>6000</v>
       </c>
-      <c r="C29">
+      <c r="C31" s="1">
         <v>6000</v>
       </c>
-      <c r="E29">
-        <f>SUM(B29:C29)</f>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <f>SUM(B31:C31)</f>
         <v>12000</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F31" s="44">
         <v>64</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G31" s="44">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19" customHeight="1">
-      <c r="A32" s="41" t="s">
+    <row r="34" spans="1:13" ht="19" customHeight="1">
+      <c r="A34" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="I32" s="43" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="I34" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="44" t="s">
+      <c r="J34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-    </row>
-    <row r="34" spans="1:13" ht="31" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43" t="s">
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="1:13" ht="31" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-    </row>
-    <row r="35" spans="1:13" ht="31" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-    </row>
-    <row r="36" spans="1:13" ht="20">
-      <c r="A36" s="41" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+    </row>
+    <row r="37" spans="1:13" ht="31" customHeight="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="1:13" ht="20">
+      <c r="A38" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="44" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G39" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-    </row>
-    <row r="38" spans="1:13" ht="37" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43" t="s">
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="1:13" ht="37" customHeight="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L32:M37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B38:F38"/>
+  <mergeCells count="21">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L34:M39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I32:J37"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="I34:J39"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="160" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="9180" yWindow="40" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>1 vs 0</t>
   </si>
@@ -111,31 +111,13 @@
   </si>
   <si>
     <t>79 out of 100 repetition</t>
-  </si>
-  <si>
-    <t>0&gt;1</t>
-  </si>
-  <si>
-    <t>1&gt;0&gt;2</t>
-  </si>
-  <si>
-    <t>0&gt;3&gt;1&gt;2</t>
-  </si>
-  <si>
-    <t>1&gt;0&gt;4&gt;2&gt;3</t>
-  </si>
-  <si>
-    <t>0&gt;1&gt;2</t>
-  </si>
-  <si>
-    <t>1&gt;0&gt;4&gt;3&gt;2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,11 +192,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,7 +379,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -426,10 +403,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,6 +418,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,6 +466,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,85 +489,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -593,7 +503,6 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -605,7 +514,6 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M40"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:K9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -947,694 +855,589 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="18"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="18">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>-0.1618087</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>7.2028369999999994E-2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>-0.17662720000000001</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>-0.23758509999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>-0.37123040000000002</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <v>-0.1125782</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>0.58856109999999995</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="13">
         <v>-0.14091770000000001</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="13">
         <f>-0.5286091</f>
         <v>-0.52860910000000005</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>-9.1246220000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18">
-      <c r="A5" s="16"/>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="48"/>
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.1477463</v>
+      </c>
+      <c r="C5" s="25">
+        <v>-3.267547E-3</v>
+      </c>
+      <c r="D5" s="26">
+        <v>-0.21823020000000001</v>
+      </c>
+      <c r="E5" s="25">
+        <v>-0.1514133</v>
+      </c>
+      <c r="F5" s="13">
+        <v>-0.3790287</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-0.11397210000000001</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.71385609999999999</v>
+      </c>
+      <c r="I5" s="29">
+        <v>-3.5405430000000002E-2</v>
+      </c>
+      <c r="J5" s="29">
+        <v>-0.36857820000000002</v>
+      </c>
+      <c r="K5" s="26">
+        <v>-3.9921369999999998E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>-0.1477463</v>
-      </c>
-      <c r="C6" s="24">
-        <v>-3.267547E-3</v>
-      </c>
-      <c r="D6" s="25">
-        <v>-0.21823020000000001</v>
-      </c>
-      <c r="E6" s="24">
-        <v>-0.1514133</v>
-      </c>
-      <c r="F6" s="12">
-        <v>-0.3790287</v>
-      </c>
-      <c r="G6" s="11">
-        <v>-0.11397210000000001</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0.71385609999999999</v>
-      </c>
-      <c r="I6" s="28">
-        <v>-3.5405430000000002E-2</v>
-      </c>
-      <c r="J6" s="28">
-        <v>-0.36857820000000002</v>
-      </c>
-      <c r="K6" s="25">
-        <v>-3.9921369999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18">
-      <c r="A7" s="16"/>
-      <c r="B7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="1:12" ht="18">
-      <c r="A8" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B6" s="14">
         <v>-0.20689299999999999</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C6" s="15">
         <v>9.4824640000000002E-2</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D6" s="27">
         <v>-0.44182779999999999</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E6" s="28">
         <v>-0.14833080000000001</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F6" s="16">
         <v>-0.4171551</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G6" s="27">
         <v>-6.4506309999999997E-2</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H6" s="28">
         <v>0.71169369999999998</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I6" s="16">
         <v>-0.13581989999999999</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J6" s="30">
         <v>-0.12475700000000001</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K6" s="27">
         <v>-4.1133690000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="14" spans="1:12" ht="20">
-      <c r="A14" s="30" t="s">
+    <row r="12" spans="1:12" ht="20">
+      <c r="A12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14">
+        <v>2400</v>
+      </c>
+      <c r="C14">
+        <v>2400</v>
+      </c>
+      <c r="E14">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="32">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>13</v>
+      <c r="B15">
+        <v>1200</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
+      </c>
+      <c r="D15">
+        <v>2400</v>
+      </c>
+      <c r="E15">
+        <f>SUM(B15:D15)</f>
+        <v>4800</v>
+      </c>
+      <c r="F15" s="31">
+        <v>42</v>
+      </c>
+      <c r="G15" s="31">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2400</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2400</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F16" s="35">
+      <c r="D16">
+        <v>2400</v>
+      </c>
+      <c r="E16">
+        <f>SUM(B16:D16)</f>
+        <v>7200</v>
+      </c>
+      <c r="F16" s="32">
+        <v>50</v>
+      </c>
+      <c r="G16" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="33">
+        <v>600</v>
+      </c>
+      <c r="C17" s="34">
+        <v>600</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" ref="E17:E27" si="0">SUM(B17:D17)</f>
+        <v>3600</v>
+      </c>
+      <c r="F17" s="35">
+        <v>52</v>
+      </c>
+      <c r="G17" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="40">
+        <v>1200</v>
+      </c>
+      <c r="C18" s="40">
+        <v>2400</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="46">
         <v>48</v>
       </c>
-      <c r="G16" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="G18" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19">
+        <v>240</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+      <c r="D19">
         <v>2400</v>
       </c>
-      <c r="E17" s="1">
-        <f>SUM(B17:D17)</f>
-        <v>4800</v>
-      </c>
-      <c r="F17" s="36">
-        <v>42</v>
-      </c>
-      <c r="G17" s="36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2400</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2400</v>
-      </c>
-      <c r="E18" s="1">
-        <f>SUM(B18:D18)</f>
-        <v>7200</v>
-      </c>
-      <c r="F18" s="35">
-        <v>50</v>
-      </c>
-      <c r="G18" s="36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="37">
-        <v>600</v>
-      </c>
-      <c r="C19" s="38">
-        <v>600</v>
-      </c>
-      <c r="D19" s="38">
-        <v>2400</v>
-      </c>
-      <c r="E19" s="38">
-        <f t="shared" ref="E19:E29" si="0">SUM(B19:D19)</f>
-        <v>3600</v>
-      </c>
-      <c r="F19" s="39">
-        <v>52</v>
-      </c>
-      <c r="G19" s="40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="41">
-        <v>1200</v>
-      </c>
-      <c r="C20" s="41">
-        <v>2400</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43">
-        <v>48</v>
-      </c>
-      <c r="G20" s="44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1">
-        <v>240</v>
-      </c>
-      <c r="C21" s="1">
-        <v>240</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2400</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F19" s="32">
         <v>49</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G19" s="31">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1">
+    <row r="21" spans="1:13">
+      <c r="B21">
         <v>4800</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C21">
         <v>4800</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <f>SUM(B23:C23)</f>
+      <c r="E21">
+        <f>SUM(B21:C21)</f>
         <v>9600</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F21" s="39">
         <v>60</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G21">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="37">
+    <row r="22" spans="1:13">
+      <c r="B22" s="33">
         <v>2400</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C22" s="34">
         <v>2400</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D22" s="34">
         <v>4800</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E22" s="34">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F22" s="35">
         <v>65</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G22" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1">
+    <row r="23" spans="1:13">
+      <c r="B23">
         <v>600</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C23">
         <v>600</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D23">
         <v>4800</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F23" s="39">
         <v>61</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G23" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="37">
+    <row r="24" spans="1:13">
+      <c r="B24" s="33">
         <v>480</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C24" s="34">
         <v>480</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D24" s="34">
         <v>4800</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E24" s="34">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F24" s="35">
         <v>64</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G24" s="36">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="41">
+    <row r="25" spans="1:13">
+      <c r="B25" s="40">
         <v>960</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C25" s="40">
         <v>4800</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
+      <c r="E25">
         <v>5760</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F25" s="39">
         <v>60</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G25" s="38">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
-      <c r="B29" s="37">
+    <row r="26" spans="1:13">
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="33">
         <v>480</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C27" s="34">
         <v>480</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D27" s="34">
         <v>6000</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E27" s="34">
         <f t="shared" si="0"/>
         <v>6960</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F27" s="37">
         <v>80</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G27" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1">
+    <row r="28" spans="1:13">
+      <c r="B28">
         <v>960</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C28">
         <v>6000</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
+      <c r="E28">
         <v>6960</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F28" s="38">
         <v>72</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G28" s="38">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1">
+    <row r="29" spans="1:13">
+      <c r="B29">
         <v>6000</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C29">
         <v>6000</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1">
-        <f>SUM(B31:C31)</f>
+      <c r="E29">
+        <f>SUM(B29:C29)</f>
         <v>12000</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F29" s="38">
         <v>64</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G29" s="38">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19" customHeight="1">
-      <c r="A34" s="30" t="s">
+    <row r="32" spans="1:13" ht="19" customHeight="1">
+      <c r="A32" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="I34" s="32" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="I32" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="33" t="s">
+      <c r="J32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G33" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-    </row>
-    <row r="36" spans="1:13" ht="31" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32" t="s">
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+    </row>
+    <row r="34" spans="1:13" ht="31" customHeight="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-    </row>
-    <row r="37" spans="1:13" ht="31" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-    </row>
-    <row r="38" spans="1:13" ht="20">
-      <c r="A38" s="30" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+    </row>
+    <row r="35" spans="1:13" ht="31" customHeight="1">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+    </row>
+    <row r="36" spans="1:13" ht="20">
+      <c r="A36" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="33" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G37" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-    </row>
-    <row r="40" spans="1:13" ht="37" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32" t="s">
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" ht="37" customHeight="1">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L34:M39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
+  <mergeCells count="12">
+    <mergeCell ref="L32:M37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B38:F38"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="I34:J39"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I32:J37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
